--- a/biology/Médecine/Aloxiprine/Aloxiprine.xlsx
+++ b/biology/Médecine/Aloxiprine/Aloxiprine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'aloxiprine ou hydroxyde d'acétylsalicylate d'aluminium est un médicament utilisé dans le traitement de la douleur et de l'inflammation associées à des troubles musculaires squelettiques et articulaires[2]. Il est utilisé pour ses propriétés anti-inflammatoire, antipyrétique et analgésique. C'est un composé chimique de l'hydroxyde d'aluminium et de l'aspirine[3].
+L'aloxiprine ou hydroxyde d'acétylsalicylate d'aluminium est un médicament utilisé dans le traitement de la douleur et de l'inflammation associées à des troubles musculaires squelettiques et articulaires. Il est utilisé pour ses propriétés anti-inflammatoire, antipyrétique et analgésique. C'est un composé chimique de l'hydroxyde d'aluminium et de l'aspirine.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Noms alternatifs et combinaisons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Palaprin Forte[4].
-Askit, une combinaison de poudre d'aspirine, d'aloxiprine et de caféine[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Palaprin Forte.
+Askit, une combinaison de poudre d'aspirine, d'aloxiprine et de caféine.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les personnes allergiques aux salicylates.
 Les personnes souffrant d'ulcères gastro-intestinaux.
